--- a/published-data/fonds-solidarite/fds-2021-09-03/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-09-03/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27408</v>
+        <v>27414</v>
       </c>
       <c r="D2" t="n">
         <v>7514</v>
       </c>
       <c r="E2" t="n">
-        <v>58214774</v>
+        <v>58232982</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -507,13 +574,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45889</v>
+        <v>45907</v>
       </c>
       <c r="D4" t="n">
         <v>11486</v>
       </c>
       <c r="E4" t="n">
-        <v>114901183</v>
+        <v>115135416</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -630,13 +697,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>93988</v>
+        <v>93992</v>
       </c>
       <c r="D7" t="n">
         <v>32187</v>
       </c>
       <c r="E7" t="n">
-        <v>156699245</v>
+        <v>156711255</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>178940</v>
+        <v>178966</v>
       </c>
       <c r="D8" t="n">
-        <v>40025</v>
+        <v>40027</v>
       </c>
       <c r="E8" t="n">
-        <v>624502382</v>
+        <v>624834537</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -712,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>67141</v>
+        <v>67161</v>
       </c>
       <c r="D9" t="n">
         <v>10001</v>
       </c>
       <c r="E9" t="n">
-        <v>181029187</v>
+        <v>181074672</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -753,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>264107</v>
+        <v>264261</v>
       </c>
       <c r="D10" t="n">
-        <v>29297</v>
+        <v>29301</v>
       </c>
       <c r="E10" t="n">
-        <v>1689925043</v>
+        <v>1690796975</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -794,13 +861,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24171</v>
+        <v>24181</v>
       </c>
       <c r="D11" t="n">
         <v>4794</v>
       </c>
       <c r="E11" t="n">
-        <v>59382604</v>
+        <v>59409298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -876,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37333</v>
+        <v>37345</v>
       </c>
       <c r="D13" t="n">
-        <v>8439</v>
+        <v>8440</v>
       </c>
       <c r="E13" t="n">
-        <v>93786564</v>
+        <v>93892426</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>116188</v>
+        <v>116222</v>
       </c>
       <c r="D14" t="n">
-        <v>25192</v>
+        <v>25193</v>
       </c>
       <c r="E14" t="n">
-        <v>364825390</v>
+        <v>365083798</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +1025,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55313</v>
+        <v>55345</v>
       </c>
       <c r="D15" t="n">
-        <v>11268</v>
+        <v>11270</v>
       </c>
       <c r="E15" t="n">
-        <v>208370576</v>
+        <v>208724743</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1040,13 +1107,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>132056</v>
+        <v>132108</v>
       </c>
       <c r="D17" t="n">
-        <v>19553</v>
+        <v>19554</v>
       </c>
       <c r="E17" t="n">
-        <v>290490667</v>
+        <v>290578583</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1081,13 +1148,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>60477</v>
+        <v>60479</v>
       </c>
       <c r="D18" t="n">
         <v>23689</v>
       </c>
       <c r="E18" t="n">
-        <v>83068478</v>
+        <v>83069355</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1122,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>104362</v>
+        <v>104412</v>
       </c>
       <c r="D19" t="n">
-        <v>13448</v>
+        <v>13450</v>
       </c>
       <c r="E19" t="n">
-        <v>325569833</v>
+        <v>325684997</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1163,13 +1230,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>107237</v>
+        <v>107257</v>
       </c>
       <c r="D20" t="n">
         <v>24254</v>
       </c>
       <c r="E20" t="n">
-        <v>221669802</v>
+        <v>221730636</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1204,13 +1271,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9790</v>
+        <v>9795</v>
       </c>
       <c r="D21" t="n">
         <v>2897</v>
       </c>
       <c r="E21" t="n">
-        <v>34131633</v>
+        <v>34195560</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1286,13 +1353,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12202</v>
+        <v>12203</v>
       </c>
       <c r="D23" t="n">
         <v>3237</v>
       </c>
       <c r="E23" t="n">
-        <v>25262872</v>
+        <v>25265344</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1409,13 +1476,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21366</v>
+        <v>21368</v>
       </c>
       <c r="D26" t="n">
         <v>8049</v>
       </c>
       <c r="E26" t="n">
-        <v>33714340</v>
+        <v>33716749</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1450,13 +1517,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>51843</v>
+        <v>51844</v>
       </c>
       <c r="D27" t="n">
         <v>12293</v>
       </c>
       <c r="E27" t="n">
-        <v>146076320</v>
+        <v>146076890</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1532,13 +1599,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>73665</v>
+        <v>73702</v>
       </c>
       <c r="D29" t="n">
-        <v>8142</v>
+        <v>8144</v>
       </c>
       <c r="E29" t="n">
-        <v>418305998</v>
+        <v>418370235</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1573,13 +1640,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="D30" t="n">
         <v>858</v>
       </c>
       <c r="E30" t="n">
-        <v>10587884</v>
+        <v>10588067</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1655,13 +1722,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6930</v>
+        <v>6934</v>
       </c>
       <c r="D32" t="n">
         <v>1712</v>
       </c>
       <c r="E32" t="n">
-        <v>13060758</v>
+        <v>13071423</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1763,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21930</v>
+        <v>21937</v>
       </c>
       <c r="D33" t="n">
-        <v>4892</v>
+        <v>4893</v>
       </c>
       <c r="E33" t="n">
-        <v>70073535</v>
+        <v>70084104</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1737,13 +1804,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10755</v>
+        <v>10760</v>
       </c>
       <c r="D34" t="n">
         <v>2281</v>
       </c>
       <c r="E34" t="n">
-        <v>35439277</v>
+        <v>35463100</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1819,13 +1886,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>16346</v>
+        <v>16349</v>
       </c>
       <c r="D36" t="n">
         <v>2773</v>
       </c>
       <c r="E36" t="n">
-        <v>27218612</v>
+        <v>27221166</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1901,13 +1968,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>25964</v>
+        <v>25976</v>
       </c>
       <c r="D38" t="n">
         <v>3251</v>
       </c>
       <c r="E38" t="n">
-        <v>79196314</v>
+        <v>79214105</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +2009,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31459</v>
+        <v>31464</v>
       </c>
       <c r="D39" t="n">
-        <v>7345</v>
+        <v>7346</v>
       </c>
       <c r="E39" t="n">
-        <v>62345231</v>
+        <v>62348016</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1983,13 +2050,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6181</v>
+        <v>6185</v>
       </c>
       <c r="D40" t="n">
         <v>1866</v>
       </c>
       <c r="E40" t="n">
-        <v>15627441</v>
+        <v>15670591</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2065,13 +2132,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>16580</v>
+        <v>16581</v>
       </c>
       <c r="D42" t="n">
         <v>4194</v>
       </c>
       <c r="E42" t="n">
-        <v>32017321</v>
+        <v>32017410</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2229,13 +2296,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>55293</v>
+        <v>55301</v>
       </c>
       <c r="D46" t="n">
         <v>13272</v>
       </c>
       <c r="E46" t="n">
-        <v>171565075</v>
+        <v>171730741</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2270,13 +2337,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10060</v>
+        <v>10062</v>
       </c>
       <c r="D47" t="n">
         <v>1862</v>
       </c>
       <c r="E47" t="n">
-        <v>27377987</v>
+        <v>27379538</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2311,13 +2378,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>99685</v>
+        <v>99741</v>
       </c>
       <c r="D48" t="n">
         <v>11271</v>
       </c>
       <c r="E48" t="n">
-        <v>613240485</v>
+        <v>613491778</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2352,13 +2419,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>7440</v>
+        <v>7446</v>
       </c>
       <c r="D49" t="n">
         <v>1436</v>
       </c>
       <c r="E49" t="n">
-        <v>20003202</v>
+        <v>20014209</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2460,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="D50" t="n">
         <v>623</v>
       </c>
       <c r="E50" t="n">
-        <v>6216365</v>
+        <v>6246388</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2475,13 +2542,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33130</v>
+        <v>33143</v>
       </c>
       <c r="D52" t="n">
         <v>7459</v>
       </c>
       <c r="E52" t="n">
-        <v>111595576</v>
+        <v>111611652</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2516,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>12854</v>
+        <v>12861</v>
       </c>
       <c r="D53" t="n">
         <v>2942</v>
       </c>
       <c r="E53" t="n">
-        <v>46694985</v>
+        <v>46737542</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17472</v>
+        <v>17477</v>
       </c>
       <c r="D54" t="n">
         <v>3142</v>
       </c>
       <c r="E54" t="n">
-        <v>31797701</v>
+        <v>31803698</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2639,13 +2706,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>31888</v>
+        <v>31899</v>
       </c>
       <c r="D56" t="n">
         <v>4415</v>
       </c>
       <c r="E56" t="n">
-        <v>102677938</v>
+        <v>102711956</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2680,13 +2747,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>35109</v>
+        <v>35113</v>
       </c>
       <c r="D57" t="n">
         <v>8569</v>
       </c>
       <c r="E57" t="n">
-        <v>71294467</v>
+        <v>71335142</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2721,13 +2788,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6688</v>
+        <v>6697</v>
       </c>
       <c r="D58" t="n">
         <v>1818</v>
       </c>
       <c r="E58" t="n">
-        <v>25146441</v>
+        <v>25196475</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2762,13 +2829,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10417</v>
+        <v>10419</v>
       </c>
       <c r="D59" t="n">
         <v>2669</v>
       </c>
       <c r="E59" t="n">
-        <v>21328292</v>
+        <v>21342440</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2926,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40414</v>
+        <v>40419</v>
       </c>
       <c r="D63" t="n">
         <v>9891</v>
       </c>
       <c r="E63" t="n">
-        <v>113202770</v>
+        <v>113219411</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2967,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>10248</v>
+        <v>10250</v>
       </c>
       <c r="D64" t="n">
         <v>1950</v>
       </c>
       <c r="E64" t="n">
-        <v>24184446</v>
+        <v>24185994</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>58217</v>
+        <v>58253</v>
       </c>
       <c r="D65" t="n">
-        <v>6570</v>
+        <v>6571</v>
       </c>
       <c r="E65" t="n">
-        <v>326383743</v>
+        <v>326484847</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3049,13 +3116,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4720</v>
+        <v>4721</v>
       </c>
       <c r="D66" t="n">
         <v>966</v>
       </c>
       <c r="E66" t="n">
-        <v>13113006</v>
+        <v>13114084</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3172,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>20261</v>
+        <v>20269</v>
       </c>
       <c r="D69" t="n">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="E69" t="n">
-        <v>60107338</v>
+        <v>60136353</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3213,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10472</v>
+        <v>10474</v>
       </c>
       <c r="D70" t="n">
         <v>2293</v>
       </c>
       <c r="E70" t="n">
-        <v>33674504</v>
+        <v>33877640</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3254,13 +3321,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>12397</v>
+        <v>12402</v>
       </c>
       <c r="D71" t="n">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="E71" t="n">
-        <v>23062237</v>
+        <v>23064468</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3295,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>11169</v>
+        <v>11170</v>
       </c>
       <c r="D72" t="n">
         <v>4527</v>
       </c>
       <c r="E72" t="n">
-        <v>14697664</v>
+        <v>14697920</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3336,13 +3403,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>23344</v>
+        <v>23356</v>
       </c>
       <c r="D73" t="n">
         <v>3098</v>
       </c>
       <c r="E73" t="n">
-        <v>75750561</v>
+        <v>75785621</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3444,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>27803</v>
+        <v>27809</v>
       </c>
       <c r="D74" t="n">
         <v>6637</v>
       </c>
       <c r="E74" t="n">
-        <v>54383871</v>
+        <v>54394428</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3664,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>25468</v>
+        <v>25476</v>
       </c>
       <c r="D81" t="n">
         <v>2812</v>
       </c>
       <c r="E81" t="n">
-        <v>162223531</v>
+        <v>162236022</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3828,13 +3895,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>10489</v>
+        <v>10491</v>
       </c>
       <c r="D85" t="n">
         <v>1846</v>
       </c>
       <c r="E85" t="n">
-        <v>46041408</v>
+        <v>46046793</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3869,13 +3936,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5277</v>
+        <v>5278</v>
       </c>
       <c r="D86" t="n">
         <v>944</v>
       </c>
       <c r="E86" t="n">
-        <v>18673147</v>
+        <v>18678580</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3992,13 +4059,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4614</v>
+        <v>4617</v>
       </c>
       <c r="D89" t="n">
         <v>554</v>
       </c>
       <c r="E89" t="n">
-        <v>16932181</v>
+        <v>16966967</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4033,13 +4100,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6205</v>
+        <v>6206</v>
       </c>
       <c r="D90" t="n">
         <v>1285</v>
       </c>
       <c r="E90" t="n">
-        <v>12396172</v>
+        <v>12405372</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4074,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>50664</v>
+        <v>50687</v>
       </c>
       <c r="D91" t="n">
         <v>12960</v>
       </c>
       <c r="E91" t="n">
-        <v>263271117</v>
+        <v>263371930</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4156,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>22766</v>
+        <v>22772</v>
       </c>
       <c r="D93" t="n">
         <v>5763</v>
       </c>
       <c r="E93" t="n">
-        <v>76422798</v>
+        <v>76437290</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4279,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="D96" t="n">
         <v>15879</v>
       </c>
       <c r="E96" t="n">
-        <v>71349803</v>
+        <v>71351455</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4320,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>97288</v>
+        <v>97303</v>
       </c>
       <c r="D97" t="n">
-        <v>22661</v>
+        <v>22662</v>
       </c>
       <c r="E97" t="n">
-        <v>296847884</v>
+        <v>296944344</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4361,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>21826</v>
+        <v>21833</v>
       </c>
       <c r="D98" t="n">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="E98" t="n">
-        <v>56988374</v>
+        <v>57034982</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4402,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>129097</v>
+        <v>129169</v>
       </c>
       <c r="D99" t="n">
-        <v>13995</v>
+        <v>13998</v>
       </c>
       <c r="E99" t="n">
-        <v>833668137</v>
+        <v>834225178</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4443,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9505</v>
+        <v>9510</v>
       </c>
       <c r="D100" t="n">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E100" t="n">
-        <v>23689615</v>
+        <v>23705661</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4525,13 +4592,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>13542</v>
+        <v>13546</v>
       </c>
       <c r="D102" t="n">
         <v>3094</v>
       </c>
       <c r="E102" t="n">
-        <v>28445504</v>
+        <v>28454327</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4566,13 +4633,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>47617</v>
+        <v>47634</v>
       </c>
       <c r="D103" t="n">
         <v>10587</v>
       </c>
       <c r="E103" t="n">
-        <v>133595090</v>
+        <v>133757586</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>21308</v>
+        <v>21316</v>
       </c>
       <c r="D104" t="n">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="E104" t="n">
-        <v>73886915</v>
+        <v>74170945</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4689,13 +4756,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>26675</v>
+        <v>26682</v>
       </c>
       <c r="D106" t="n">
         <v>4740</v>
       </c>
       <c r="E106" t="n">
-        <v>48695447</v>
+        <v>48698692</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4730,13 +4797,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>26861</v>
+        <v>26862</v>
       </c>
       <c r="D107" t="n">
         <v>11149</v>
       </c>
       <c r="E107" t="n">
-        <v>36748493</v>
+        <v>36749741</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4771,13 +4838,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>44082</v>
+        <v>44103</v>
       </c>
       <c r="D108" t="n">
         <v>5427</v>
       </c>
       <c r="E108" t="n">
-        <v>138575576</v>
+        <v>138617393</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4812,13 +4879,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>65180</v>
+        <v>65186</v>
       </c>
       <c r="D109" t="n">
-        <v>14837</v>
+        <v>14838</v>
       </c>
       <c r="E109" t="n">
-        <v>128553465</v>
+        <v>128577812</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4894,13 +4961,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5249</v>
+        <v>5253</v>
       </c>
       <c r="D111" t="n">
         <v>1203</v>
       </c>
       <c r="E111" t="n">
-        <v>10094002</v>
+        <v>10109460</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5058,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>14692</v>
+        <v>14699</v>
       </c>
       <c r="D115" t="n">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="E115" t="n">
-        <v>29134932</v>
+        <v>29155963</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5099,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4616</v>
+        <v>4619</v>
       </c>
       <c r="D116" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E116" t="n">
-        <v>10678909</v>
+        <v>10680286</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5140,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>16386</v>
+        <v>16400</v>
       </c>
       <c r="D117" t="n">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="E117" t="n">
-        <v>43888624</v>
+        <v>43951077</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5181,13 +5248,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D118" t="n">
         <v>306</v>
       </c>
       <c r="E118" t="n">
-        <v>4063055</v>
+        <v>4068324</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5304,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5308</v>
+        <v>5311</v>
       </c>
       <c r="D121" t="n">
         <v>1268</v>
       </c>
       <c r="E121" t="n">
-        <v>9971829</v>
+        <v>9978243</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5345,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8428</v>
+        <v>8436</v>
       </c>
       <c r="D122" t="n">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="E122" t="n">
-        <v>23988263</v>
+        <v>24012193</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5468,13 +5535,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3821</v>
+        <v>3822</v>
       </c>
       <c r="D125" t="n">
         <v>491</v>
       </c>
       <c r="E125" t="n">
-        <v>10451638</v>
+        <v>10452838</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5550,13 +5617,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6653</v>
+        <v>6655</v>
       </c>
       <c r="D127" t="n">
         <v>821</v>
       </c>
       <c r="E127" t="n">
-        <v>10908046</v>
+        <v>10911046</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -5714,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>7029</v>
+        <v>7030</v>
       </c>
       <c r="D131" t="n">
         <v>1095</v>
       </c>
       <c r="E131" t="n">
-        <v>15598662</v>
+        <v>15600162</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5755,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>5954</v>
+        <v>5955</v>
       </c>
       <c r="D132" t="n">
         <v>988</v>
       </c>
       <c r="E132" t="n">
-        <v>12346918</v>
+        <v>12348418</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5837,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4736</v>
+        <v>4737</v>
       </c>
       <c r="D134" t="n">
         <v>583</v>
       </c>
       <c r="E134" t="n">
-        <v>13707061</v>
+        <v>13707421</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6001,13 +6068,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="D138" t="n">
         <v>440</v>
       </c>
       <c r="E138" t="n">
-        <v>5722275</v>
+        <v>5723835</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6124,13 +6191,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D141" t="n">
         <v>244</v>
       </c>
       <c r="E141" t="n">
-        <v>1748064</v>
+        <v>1749564</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6165,13 +6232,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D142" t="n">
         <v>137</v>
       </c>
       <c r="E142" t="n">
-        <v>2709899</v>
+        <v>2721399</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6206,13 +6273,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="D143" t="n">
         <v>291</v>
       </c>
       <c r="E143" t="n">
-        <v>3424673</v>
+        <v>3428188</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -6247,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7561</v>
+        <v>7562</v>
       </c>
       <c r="D144" t="n">
         <v>2213</v>
       </c>
       <c r="E144" t="n">
-        <v>23728206</v>
+        <v>23729419</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6329,13 +6396,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>16849</v>
+        <v>16852</v>
       </c>
       <c r="D146" t="n">
         <v>4231</v>
       </c>
       <c r="E146" t="n">
-        <v>41598409</v>
+        <v>41605724</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6452,13 +6519,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>36620</v>
+        <v>36625</v>
       </c>
       <c r="D149" t="n">
-        <v>13027</v>
+        <v>13028</v>
       </c>
       <c r="E149" t="n">
-        <v>58775486</v>
+        <v>58787881</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6493,13 +6560,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>94068</v>
+        <v>94078</v>
       </c>
       <c r="D150" t="n">
         <v>21115</v>
       </c>
       <c r="E150" t="n">
-        <v>269733495</v>
+        <v>269749291</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6534,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>35866</v>
+        <v>35881</v>
       </c>
       <c r="D151" t="n">
-        <v>5283</v>
+        <v>5284</v>
       </c>
       <c r="E151" t="n">
-        <v>77376532</v>
+        <v>77468262</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>119103</v>
+        <v>119158</v>
       </c>
       <c r="D152" t="n">
         <v>13418</v>
       </c>
       <c r="E152" t="n">
-        <v>694130682</v>
+        <v>694323783</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6616,13 +6683,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>9177</v>
+        <v>9180</v>
       </c>
       <c r="D153" t="n">
         <v>1956</v>
       </c>
       <c r="E153" t="n">
-        <v>22929444</v>
+        <v>22930959</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6698,13 +6765,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>11556</v>
+        <v>11557</v>
       </c>
       <c r="D155" t="n">
         <v>2740</v>
       </c>
       <c r="E155" t="n">
-        <v>24810458</v>
+        <v>24811055</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6739,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>46405</v>
+        <v>46411</v>
       </c>
       <c r="D156" t="n">
         <v>9966</v>
       </c>
       <c r="E156" t="n">
-        <v>137241895</v>
+        <v>137247504</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6780,13 +6847,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>20486</v>
+        <v>20495</v>
       </c>
       <c r="D157" t="n">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E157" t="n">
-        <v>71549919</v>
+        <v>71707031</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6862,13 +6929,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>21680</v>
+        <v>21685</v>
       </c>
       <c r="D159" t="n">
         <v>4105</v>
       </c>
       <c r="E159" t="n">
-        <v>37007585</v>
+        <v>37010605</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6944,13 +7011,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>42843</v>
+        <v>42864</v>
       </c>
       <c r="D161" t="n">
         <v>5283</v>
       </c>
       <c r="E161" t="n">
-        <v>137698070</v>
+        <v>137773751</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -6985,13 +7052,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>61689</v>
+        <v>61695</v>
       </c>
       <c r="D162" t="n">
         <v>14049</v>
       </c>
       <c r="E162" t="n">
-        <v>112725800</v>
+        <v>112727086</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7067,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>48749</v>
+        <v>48771</v>
       </c>
       <c r="D164" t="n">
-        <v>10999</v>
+        <v>11001</v>
       </c>
       <c r="E164" t="n">
-        <v>143532415</v>
+        <v>143707736</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7149,13 +7216,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D166" t="n">
         <v>423</v>
       </c>
       <c r="E166" t="n">
-        <v>2898053</v>
+        <v>2898993</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7190,13 +7257,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>100824</v>
+        <v>100833</v>
       </c>
       <c r="D167" t="n">
         <v>32138</v>
       </c>
       <c r="E167" t="n">
-        <v>187886261</v>
+        <v>188000046</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7231,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>275769</v>
+        <v>275879</v>
       </c>
       <c r="D168" t="n">
-        <v>57818</v>
+        <v>57828</v>
       </c>
       <c r="E168" t="n">
-        <v>1077907395</v>
+        <v>1078934104</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7272,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>539106</v>
+        <v>539371</v>
       </c>
       <c r="D169" t="n">
-        <v>60791</v>
+        <v>60793</v>
       </c>
       <c r="E169" t="n">
-        <v>1236996570</v>
+        <v>1237580879</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7313,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>336843</v>
+        <v>337188</v>
       </c>
       <c r="D170" t="n">
-        <v>37560</v>
+        <v>37570</v>
       </c>
       <c r="E170" t="n">
-        <v>2594881886</v>
+        <v>2597973565</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7354,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>109490</v>
+        <v>109545</v>
       </c>
       <c r="D171" t="n">
-        <v>20153</v>
+        <v>20154</v>
       </c>
       <c r="E171" t="n">
-        <v>386644206</v>
+        <v>387004267</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7395,13 +7462,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>21226</v>
+        <v>21232</v>
       </c>
       <c r="D172" t="n">
         <v>4319</v>
       </c>
       <c r="E172" t="n">
-        <v>63846388</v>
+        <v>64014848</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7436,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>53400</v>
+        <v>53417</v>
       </c>
       <c r="D173" t="n">
-        <v>11557</v>
+        <v>11560</v>
       </c>
       <c r="E173" t="n">
-        <v>144748150</v>
+        <v>144847544</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7477,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>345737</v>
+        <v>345864</v>
       </c>
       <c r="D174" t="n">
-        <v>69459</v>
+        <v>69465</v>
       </c>
       <c r="E174" t="n">
-        <v>935955332</v>
+        <v>936641876</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7518,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>116812</v>
+        <v>116915</v>
       </c>
       <c r="D175" t="n">
-        <v>17687</v>
+        <v>17694</v>
       </c>
       <c r="E175" t="n">
-        <v>640469668</v>
+        <v>641945293</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7600,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>94224</v>
+        <v>94273</v>
       </c>
       <c r="D177" t="n">
-        <v>16424</v>
+        <v>16426</v>
       </c>
       <c r="E177" t="n">
-        <v>166956327</v>
+        <v>167007256</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7641,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>75232</v>
+        <v>75233</v>
       </c>
       <c r="D178" t="n">
         <v>28749</v>
       </c>
       <c r="E178" t="n">
-        <v>102525535</v>
+        <v>102527255</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7682,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>222198</v>
+        <v>222379</v>
       </c>
       <c r="D179" t="n">
-        <v>28979</v>
+        <v>28985</v>
       </c>
       <c r="E179" t="n">
-        <v>725563970</v>
+        <v>726541293</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7723,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>138453</v>
+        <v>138508</v>
       </c>
       <c r="D180" t="n">
-        <v>28812</v>
+        <v>28815</v>
       </c>
       <c r="E180" t="n">
-        <v>325274588</v>
+        <v>325551909</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7805,13 +7872,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6190</v>
+        <v>6191</v>
       </c>
       <c r="D182" t="n">
         <v>1653</v>
       </c>
       <c r="E182" t="n">
-        <v>11337151</v>
+        <v>11338656</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -7969,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>20737</v>
+        <v>20742</v>
       </c>
       <c r="D186" t="n">
         <v>5201</v>
       </c>
       <c r="E186" t="n">
-        <v>36989706</v>
+        <v>36992071</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8051,13 +8118,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>17090</v>
+        <v>17094</v>
       </c>
       <c r="D188" t="n">
         <v>2566</v>
       </c>
       <c r="E188" t="n">
-        <v>50596729</v>
+        <v>50697167</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8133,13 +8200,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D190" t="n">
         <v>162</v>
       </c>
       <c r="E190" t="n">
-        <v>1060871</v>
+        <v>1061651</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8256,13 +8323,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4950</v>
+        <v>4951</v>
       </c>
       <c r="D193" t="n">
         <v>1029</v>
       </c>
       <c r="E193" t="n">
-        <v>20588503</v>
+        <v>20590470</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8297,13 +8364,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>5538</v>
+        <v>5539</v>
       </c>
       <c r="D194" t="n">
         <v>1248</v>
       </c>
       <c r="E194" t="n">
-        <v>7783276</v>
+        <v>7783525</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8379,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6655</v>
+        <v>6658</v>
       </c>
       <c r="D196" t="n">
         <v>919</v>
       </c>
       <c r="E196" t="n">
-        <v>16717341</v>
+        <v>16719728</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8666,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>10634</v>
+        <v>10639</v>
       </c>
       <c r="D203" t="n">
         <v>2225</v>
       </c>
       <c r="E203" t="n">
-        <v>24322941</v>
+        <v>24332166</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8707,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4057</v>
+        <v>4059</v>
       </c>
       <c r="D204" t="n">
         <v>715</v>
       </c>
       <c r="E204" t="n">
-        <v>9440381</v>
+        <v>9443998</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8748,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>8650</v>
+        <v>8658</v>
       </c>
       <c r="D205" t="n">
         <v>1270</v>
       </c>
       <c r="E205" t="n">
-        <v>31237378</v>
+        <v>31289358</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8789,13 +8856,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D206" t="n">
         <v>229</v>
       </c>
       <c r="E206" t="n">
-        <v>3004486</v>
+        <v>3008205</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8953,13 +9020,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>5373</v>
+        <v>5376</v>
       </c>
       <c r="D210" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E210" t="n">
-        <v>13880886</v>
+        <v>13883004</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -9076,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="D213" t="n">
         <v>377</v>
       </c>
       <c r="E213" t="n">
-        <v>7952854</v>
+        <v>7953314</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9117,13 +9184,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>5101</v>
+        <v>5103</v>
       </c>
       <c r="D214" t="n">
         <v>1062</v>
       </c>
       <c r="E214" t="n">
-        <v>8781594</v>
+        <v>8783601</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -9363,13 +9430,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="D220" t="n">
         <v>521</v>
       </c>
       <c r="E220" t="n">
-        <v>11462694</v>
+        <v>11463234</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -9609,13 +9676,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D226" t="n">
         <v>122</v>
       </c>
       <c r="E226" t="n">
-        <v>2720474</v>
+        <v>2722254</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -9814,13 +9881,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5946</v>
+        <v>5947</v>
       </c>
       <c r="D231" t="n">
         <v>1740</v>
       </c>
       <c r="E231" t="n">
-        <v>12782931</v>
+        <v>12783842</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -9896,13 +9963,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>11589</v>
+        <v>11592</v>
       </c>
       <c r="D233" t="n">
         <v>3013</v>
       </c>
       <c r="E233" t="n">
-        <v>23969027</v>
+        <v>23975199</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -10060,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>57751</v>
+        <v>57762</v>
       </c>
       <c r="D237" t="n">
         <v>13456</v>
       </c>
       <c r="E237" t="n">
-        <v>168145647</v>
+        <v>168164750</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10101,13 +10168,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>11554</v>
+        <v>11555</v>
       </c>
       <c r="D238" t="n">
         <v>2155</v>
       </c>
       <c r="E238" t="n">
-        <v>29999319</v>
+        <v>29999485</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -10142,13 +10209,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>80938</v>
+        <v>80978</v>
       </c>
       <c r="D239" t="n">
-        <v>9334</v>
+        <v>9336</v>
       </c>
       <c r="E239" t="n">
-        <v>489112821</v>
+        <v>489525421</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -10183,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5222</v>
+        <v>5223</v>
       </c>
       <c r="D240" t="n">
         <v>1049</v>
       </c>
       <c r="E240" t="n">
-        <v>13407631</v>
+        <v>13407941</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -10224,13 +10291,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="D241" t="n">
         <v>624</v>
       </c>
       <c r="E241" t="n">
-        <v>6336516</v>
+        <v>6385909</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -10306,13 +10373,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>27438</v>
+        <v>27447</v>
       </c>
       <c r="D243" t="n">
         <v>5920</v>
       </c>
       <c r="E243" t="n">
-        <v>88141345</v>
+        <v>88160375</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -10347,13 +10414,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>12766</v>
+        <v>12770</v>
       </c>
       <c r="D244" t="n">
         <v>2606</v>
       </c>
       <c r="E244" t="n">
-        <v>41929056</v>
+        <v>41937096</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -10388,13 +10455,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>15002</v>
+        <v>15003</v>
       </c>
       <c r="D245" t="n">
         <v>2706</v>
       </c>
       <c r="E245" t="n">
-        <v>26276537</v>
+        <v>26276823</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -10470,13 +10537,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>28163</v>
+        <v>28179</v>
       </c>
       <c r="D247" t="n">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="E247" t="n">
-        <v>93212678</v>
+        <v>93241268</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -10511,13 +10578,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>37980</v>
+        <v>37985</v>
       </c>
       <c r="D248" t="n">
-        <v>8745</v>
+        <v>8746</v>
       </c>
       <c r="E248" t="n">
-        <v>73416775</v>
+        <v>73426580</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -10552,13 +10619,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>35418</v>
+        <v>35440</v>
       </c>
       <c r="D249" t="n">
-        <v>9207</v>
+        <v>9208</v>
       </c>
       <c r="E249" t="n">
-        <v>139910902</v>
+        <v>140013263</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -10634,13 +10701,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>35168</v>
+        <v>35174</v>
       </c>
       <c r="D251" t="n">
         <v>8826</v>
       </c>
       <c r="E251" t="n">
-        <v>70616667</v>
+        <v>70623986</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -10757,13 +10824,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>62320</v>
+        <v>62321</v>
       </c>
       <c r="D254" t="n">
         <v>23916</v>
       </c>
       <c r="E254" t="n">
-        <v>99123644</v>
+        <v>99132144</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10798,13 +10865,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>139789</v>
+        <v>139805</v>
       </c>
       <c r="D255" t="n">
         <v>32073</v>
       </c>
       <c r="E255" t="n">
-        <v>400426867</v>
+        <v>400581824</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10839,13 +10906,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>29676</v>
+        <v>29683</v>
       </c>
       <c r="D256" t="n">
         <v>5065</v>
       </c>
       <c r="E256" t="n">
-        <v>76095341</v>
+        <v>76100850</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -10880,13 +10947,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>174698</v>
+        <v>174779</v>
       </c>
       <c r="D257" t="n">
-        <v>20178</v>
+        <v>20182</v>
       </c>
       <c r="E257" t="n">
-        <v>1036146385</v>
+        <v>1036531816</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10921,13 +10988,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>14622</v>
+        <v>14626</v>
       </c>
       <c r="D258" t="n">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="E258" t="n">
-        <v>38394655</v>
+        <v>38406148</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -11003,13 +11070,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>23389</v>
+        <v>23392</v>
       </c>
       <c r="D260" t="n">
         <v>5861</v>
       </c>
       <c r="E260" t="n">
-        <v>49081537</v>
+        <v>49090480</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -11044,13 +11111,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>77481</v>
+        <v>77506</v>
       </c>
       <c r="D261" t="n">
-        <v>17146</v>
+        <v>17150</v>
       </c>
       <c r="E261" t="n">
-        <v>226644348</v>
+        <v>226768017</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -11085,13 +11152,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>37716</v>
+        <v>37729</v>
       </c>
       <c r="D262" t="n">
         <v>8100</v>
       </c>
       <c r="E262" t="n">
-        <v>112915902</v>
+        <v>113137378</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -11126,13 +11193,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D263" t="n">
         <v>7</v>
       </c>
       <c r="E263" t="n">
-        <v>89927</v>
+        <v>99927</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -11167,13 +11234,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>46577</v>
+        <v>46588</v>
       </c>
       <c r="D264" t="n">
         <v>7763</v>
       </c>
       <c r="E264" t="n">
-        <v>80549273</v>
+        <v>80560901</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -11208,13 +11275,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>43217</v>
+        <v>43219</v>
       </c>
       <c r="D265" t="n">
         <v>17112</v>
       </c>
       <c r="E265" t="n">
-        <v>57644191</v>
+        <v>57644326</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -11249,13 +11316,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>68719</v>
+        <v>68763</v>
       </c>
       <c r="D266" t="n">
-        <v>9031</v>
+        <v>9037</v>
       </c>
       <c r="E266" t="n">
-        <v>209100653</v>
+        <v>209237210</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11290,13 +11357,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>84403</v>
+        <v>84408</v>
       </c>
       <c r="D267" t="n">
         <v>20032</v>
       </c>
       <c r="E267" t="n">
-        <v>155178453</v>
+        <v>155184215</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -11331,13 +11398,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>31685</v>
+        <v>31696</v>
       </c>
       <c r="D268" t="n">
         <v>8032</v>
       </c>
       <c r="E268" t="n">
-        <v>86606143</v>
+        <v>86657440</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -11413,13 +11480,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>39272</v>
+        <v>39281</v>
       </c>
       <c r="D270" t="n">
         <v>9511</v>
       </c>
       <c r="E270" t="n">
-        <v>78058451</v>
+        <v>78139501</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -11536,13 +11603,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>88588</v>
+        <v>88591</v>
       </c>
       <c r="D273" t="n">
         <v>29719</v>
       </c>
       <c r="E273" t="n">
-        <v>138479462</v>
+        <v>138481568</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -11577,13 +11644,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>166315</v>
+        <v>166343</v>
       </c>
       <c r="D274" t="n">
-        <v>35668</v>
+        <v>35670</v>
       </c>
       <c r="E274" t="n">
-        <v>445124256</v>
+        <v>445231681</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11618,13 +11685,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>38168</v>
+        <v>38185</v>
       </c>
       <c r="D275" t="n">
-        <v>6053</v>
+        <v>6054</v>
       </c>
       <c r="E275" t="n">
-        <v>94828101</v>
+        <v>94995696</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11659,13 +11726,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>207975</v>
+        <v>208068</v>
       </c>
       <c r="D276" t="n">
-        <v>23286</v>
+        <v>23289</v>
       </c>
       <c r="E276" t="n">
-        <v>1178934542</v>
+        <v>1179312638</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11700,13 +11767,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>18586</v>
+        <v>18593</v>
       </c>
       <c r="D277" t="n">
         <v>3668</v>
       </c>
       <c r="E277" t="n">
-        <v>40921817</v>
+        <v>40967635</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -11741,13 +11808,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>6652</v>
+        <v>6653</v>
       </c>
       <c r="D278" t="n">
         <v>1610</v>
       </c>
       <c r="E278" t="n">
-        <v>13002885</v>
+        <v>13004385</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11782,13 +11849,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>28782</v>
+        <v>28786</v>
       </c>
       <c r="D279" t="n">
         <v>6563</v>
       </c>
       <c r="E279" t="n">
-        <v>56671252</v>
+        <v>56674338</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -11823,13 +11890,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>93228</v>
+        <v>93251</v>
       </c>
       <c r="D280" t="n">
-        <v>19698</v>
+        <v>19703</v>
       </c>
       <c r="E280" t="n">
-        <v>274882433</v>
+        <v>274913832</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11864,13 +11931,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>42535</v>
+        <v>42556</v>
       </c>
       <c r="D281" t="n">
         <v>8957</v>
       </c>
       <c r="E281" t="n">
-        <v>131267455</v>
+        <v>131491450</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -11946,13 +12013,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>59528</v>
+        <v>59550</v>
       </c>
       <c r="D283" t="n">
         <v>9861</v>
       </c>
       <c r="E283" t="n">
-        <v>100041602</v>
+        <v>100054790</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -11987,13 +12054,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>48390</v>
+        <v>48391</v>
       </c>
       <c r="D284" t="n">
         <v>19340</v>
       </c>
       <c r="E284" t="n">
-        <v>65068279</v>
+        <v>65070438</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -12028,13 +12095,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>82226</v>
+        <v>82290</v>
       </c>
       <c r="D285" t="n">
-        <v>10290</v>
+        <v>10296</v>
       </c>
       <c r="E285" t="n">
-        <v>244637326</v>
+        <v>244784549</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -12069,13 +12136,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>89881</v>
+        <v>89888</v>
       </c>
       <c r="D286" t="n">
         <v>20288</v>
       </c>
       <c r="E286" t="n">
-        <v>161003385</v>
+        <v>161006152</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -12110,13 +12177,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>8344</v>
+        <v>8349</v>
       </c>
       <c r="D287" t="n">
         <v>2443</v>
       </c>
       <c r="E287" t="n">
-        <v>24369763</v>
+        <v>24407001</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -12192,13 +12259,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>15506</v>
+        <v>15509</v>
       </c>
       <c r="D289" t="n">
         <v>4112</v>
       </c>
       <c r="E289" t="n">
-        <v>33069455</v>
+        <v>33077266</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -12315,13 +12382,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>24039</v>
+        <v>24042</v>
       </c>
       <c r="D292" t="n">
         <v>10126</v>
       </c>
       <c r="E292" t="n">
-        <v>38085546</v>
+        <v>38091805</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -12356,13 +12423,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>61011</v>
+        <v>61016</v>
       </c>
       <c r="D293" t="n">
         <v>14526</v>
       </c>
       <c r="E293" t="n">
-        <v>188681167</v>
+        <v>188702521</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -12397,13 +12464,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>15350</v>
+        <v>15357</v>
       </c>
       <c r="D294" t="n">
         <v>2494</v>
       </c>
       <c r="E294" t="n">
-        <v>40182273</v>
+        <v>40186988</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -12438,13 +12505,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>86853</v>
+        <v>86904</v>
       </c>
       <c r="D295" t="n">
-        <v>9879</v>
+        <v>9881</v>
       </c>
       <c r="E295" t="n">
-        <v>538946667</v>
+        <v>539278791</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -12479,13 +12546,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>8374</v>
+        <v>8381</v>
       </c>
       <c r="D296" t="n">
         <v>1678</v>
       </c>
       <c r="E296" t="n">
-        <v>19842329</v>
+        <v>19868832</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -12561,13 +12628,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>11838</v>
+        <v>11840</v>
       </c>
       <c r="D298" t="n">
         <v>2956</v>
       </c>
       <c r="E298" t="n">
-        <v>23901612</v>
+        <v>23904837</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -12602,13 +12669,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>42120</v>
+        <v>42133</v>
       </c>
       <c r="D299" t="n">
         <v>9313</v>
       </c>
       <c r="E299" t="n">
-        <v>136171944</v>
+        <v>136258902</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -12643,13 +12710,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>15116</v>
+        <v>15120</v>
       </c>
       <c r="D300" t="n">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="E300" t="n">
-        <v>66642085</v>
+        <v>66752946</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -12684,13 +12751,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>19496</v>
+        <v>19507</v>
       </c>
       <c r="D301" t="n">
         <v>3596</v>
       </c>
       <c r="E301" t="n">
-        <v>36054512</v>
+        <v>36064579</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -12766,13 +12833,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>38427</v>
+        <v>38443</v>
       </c>
       <c r="D303" t="n">
         <v>5193</v>
       </c>
       <c r="E303" t="n">
-        <v>125619399</v>
+        <v>125686885</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -12807,13 +12874,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>42873</v>
+        <v>42880</v>
       </c>
       <c r="D304" t="n">
-        <v>10322</v>
+        <v>10323</v>
       </c>
       <c r="E304" t="n">
-        <v>85851603</v>
+        <v>85892455</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -12848,13 +12915,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>14341</v>
+        <v>14346</v>
       </c>
       <c r="D305" t="n">
         <v>3605</v>
       </c>
       <c r="E305" t="n">
-        <v>46296738</v>
+        <v>46315956</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -12930,13 +12997,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>39030</v>
+        <v>39034</v>
       </c>
       <c r="D307" t="n">
         <v>8901</v>
       </c>
       <c r="E307" t="n">
-        <v>91085456</v>
+        <v>91144626</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -13053,13 +13120,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>82394</v>
+        <v>82397</v>
       </c>
       <c r="D310" t="n">
         <v>26082</v>
       </c>
       <c r="E310" t="n">
-        <v>134361134</v>
+        <v>134366643</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -13094,13 +13161,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>188304</v>
+        <v>188337</v>
       </c>
       <c r="D311" t="n">
-        <v>37628</v>
+        <v>37631</v>
       </c>
       <c r="E311" t="n">
-        <v>565325543</v>
+        <v>565681699</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13135,13 +13202,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>72595</v>
+        <v>72623</v>
       </c>
       <c r="D312" t="n">
-        <v>9325</v>
+        <v>9326</v>
       </c>
       <c r="E312" t="n">
-        <v>193014055</v>
+        <v>193061432</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -13176,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>211808</v>
+        <v>211892</v>
       </c>
       <c r="D313" t="n">
-        <v>23239</v>
+        <v>23242</v>
       </c>
       <c r="E313" t="n">
-        <v>1329978982</v>
+        <v>1330254091</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13217,13 +13284,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>20317</v>
+        <v>20324</v>
       </c>
       <c r="D314" t="n">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="E314" t="n">
-        <v>49709207</v>
+        <v>49721714</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -13299,13 +13366,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>38363</v>
+        <v>38368</v>
       </c>
       <c r="D316" t="n">
         <v>8076</v>
       </c>
       <c r="E316" t="n">
-        <v>85946215</v>
+        <v>85964390</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -13340,13 +13407,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>101242</v>
+        <v>101277</v>
       </c>
       <c r="D317" t="n">
-        <v>21129</v>
+        <v>21132</v>
       </c>
       <c r="E317" t="n">
-        <v>292536339</v>
+        <v>292613450</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -13381,13 +13448,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>56645</v>
+        <v>56666</v>
       </c>
       <c r="D318" t="n">
-        <v>10827</v>
+        <v>10828</v>
       </c>
       <c r="E318" t="n">
-        <v>200383097</v>
+        <v>200742117</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -13463,13 +13530,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>65809</v>
+        <v>65849</v>
       </c>
       <c r="D320" t="n">
-        <v>10246</v>
+        <v>10249</v>
       </c>
       <c r="E320" t="n">
-        <v>122090258</v>
+        <v>122147694</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -13504,13 +13571,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>44772</v>
+        <v>44774</v>
       </c>
       <c r="D321" t="n">
         <v>17369</v>
       </c>
       <c r="E321" t="n">
-        <v>59998966</v>
+        <v>60135248</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -13545,13 +13612,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>77719</v>
+        <v>77777</v>
       </c>
       <c r="D322" t="n">
-        <v>9593</v>
+        <v>9597</v>
       </c>
       <c r="E322" t="n">
-        <v>242597183</v>
+        <v>242823580</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -13586,13 +13653,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>93694</v>
+        <v>93708</v>
       </c>
       <c r="D323" t="n">
-        <v>19861</v>
+        <v>19862</v>
       </c>
       <c r="E323" t="n">
-        <v>177157770</v>
+        <v>177167131</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
